--- a/长度密度测量.xlsx
+++ b/长度密度测量.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7B15E-09B1-4E45-B4C2-6A334A5DD600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB3A101-8F5E-4E2C-B179-E306D15B6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>l1i/cm</t>
   </si>
@@ -241,19 +241,7 @@
     <t>黄色格子：自动输出数据</t>
   </si>
   <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -717,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -739,12 +727,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1324,261 +1315,241 @@
         <v>3.0215890197804421E-2</v>
       </c>
     </row>
+    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>59</v>
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5">
+        <v>4</v>
+      </c>
+      <c r="F40" s="5">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="5">
+        <v>41</v>
+      </c>
+      <c r="B41" s="6">
+        <v>2.2214999999999998</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2.2212999999999998</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2.2214</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2.2216</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2.2214999999999998</v>
+      </c>
+      <c r="G41" s="6">
+        <v>2.2214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="5">
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="5">
+      <c r="J42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="5">
+      <c r="K42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="5">
-        <v>5</v>
-      </c>
-      <c r="G41" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6">
-        <v>2.2214999999999998</v>
-      </c>
-      <c r="C42" s="6">
-        <v>2.2212999999999998</v>
-      </c>
-      <c r="D42" s="6">
-        <v>2.2214</v>
-      </c>
-      <c r="E42" s="6">
-        <v>2.2216</v>
-      </c>
-      <c r="F42" s="6">
-        <v>2.2214999999999998</v>
-      </c>
-      <c r="G42" s="6">
-        <v>2.2214</v>
-      </c>
     </row>
     <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="13">
-        <f>AVERAGE(B42:G42)</f>
+      <c r="A43" s="5"/>
+      <c r="B43" s="13">
+        <f>AVERAGE(B41:G41)</f>
         <v>2.2214499999999995</v>
       </c>
-      <c r="C44" s="13">
-        <f>_xlfn.STDEV.S(B42:G42)</f>
+      <c r="C43" s="13">
+        <f>_xlfn.STDEV.S(B41:G41)</f>
         <v>1.0488088481702478E-4</v>
       </c>
-      <c r="D44" s="13">
-        <f>C44/SQRT(J44)</f>
+      <c r="D43" s="13">
+        <f>C43/SQRT(J43)</f>
         <v>4.2817441928887697E-5</v>
       </c>
-      <c r="E44" s="13">
-        <f>K44/SQRT(J44)*C44</f>
+      <c r="E43" s="13">
+        <f>K43/SQRT(J43)*C43</f>
         <v>4.2817441928887697E-5</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F43" s="15">
         <f>0.0001/SQRT(3)</f>
         <v>5.7735026918962585E-5</v>
       </c>
-      <c r="G44" s="13">
-        <f>SQRT(E44^2+F44^2)</f>
+      <c r="G43" s="13">
+        <f>SQRT(E43^2+F43^2)</f>
         <v>7.1879528842828423E-5</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I43" s="8">
         <v>0.68300000000000005</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J43" s="8">
         <v>6</v>
       </c>
-      <c r="K44" s="13">
-        <f>IF(J44&lt;6,ROUND(TINV(1-I44,J44-1),2),1)</f>
+      <c r="K43" s="13">
+        <f>IF(J43&lt;6,ROUND(TINV(1-I43,J43-1),2),1)</f>
         <v>1</v>
       </c>
     </row>
+    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="13">
-        <f>PI()*B44^3/6</f>
+      <c r="A45" s="5"/>
+      <c r="B45" s="13">
+        <f>PI()*B43^3/6</f>
         <v>5.7399518632234781</v>
       </c>
-      <c r="C46" s="16">
-        <f>G44*PI()*B44^2/2</f>
+      <c r="C45" s="16">
+        <f>G43*PI()*B43^2/2</f>
         <v>5.5718341917533891E-4</v>
       </c>
     </row>
+    <row r="47" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>53</v>
+      <c r="A48" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>48</v>
+      <c r="A49" s="8">
+        <v>0.997</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>0.997</v>
+      <c r="A50" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>49</v>
+      <c r="A51" s="6">
+        <v>212.6</v>
+      </c>
+      <c r="B51" s="6">
+        <v>215.76</v>
+      </c>
+      <c r="C51" s="13">
+        <f>B51-A51</f>
+        <v>3.1599999999999966</v>
+      </c>
+      <c r="D51" s="13">
+        <f>AVERAGE(C51:C53)</f>
+        <v>3.1433333333333358</v>
+      </c>
+      <c r="E51" s="11">
+        <v>3.8</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
-        <v>212.6</v>
+        <v>225.13</v>
       </c>
       <c r="B52" s="6">
-        <v>215.76</v>
+        <v>228.28</v>
       </c>
       <c r="C52" s="13">
         <f>B52-A52</f>
-        <v>3.1599999999999966</v>
-      </c>
-      <c r="D52" s="13">
-        <f>AVERAGE(C52:C54)</f>
-        <v>3.1433333333333358</v>
-      </c>
-      <c r="E52" s="11">
-        <v>3.8</v>
-      </c>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
-        <v>225.13</v>
+        <v>215.01</v>
       </c>
       <c r="B53" s="6">
-        <v>228.28</v>
+        <v>218.13</v>
       </c>
       <c r="C53" s="13">
         <f>B53-A53</f>
-        <v>3.1500000000000057</v>
+        <v>3.1200000000000045</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
-        <v>215.01</v>
-      </c>
-      <c r="B54" s="6">
-        <v>218.13</v>
-      </c>
-      <c r="C54" s="13">
-        <f>B54-A54</f>
-        <v>3.1200000000000045</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="56" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="13">
-        <f>E52*A50/D52</f>
+      <c r="A56" s="5"/>
+      <c r="B56" s="13">
+        <f>E51*A49/D51</f>
         <v>1.2052810180275706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">

--- a/长度密度测量.xlsx
+++ b/长度密度测量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB3A101-8F5E-4E2C-B179-E306D15B6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B2E66-24A3-4B68-8B0D-1DD54E161565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>l1i/cm</t>
   </si>
@@ -180,13 +180,6 @@
     <t>水的密度/g/cm3</t>
   </si>
   <si>
-    <t>牛角扣重量m牛/g</t>
-  </si>
-  <si>
-    <t>牛角扣密度ρ牛/g/cm3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>1.课本宽度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -199,14 +192,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>放入后视重/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入前视重/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>体积不确定度uV/cm3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -223,14 +208,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>视重差△/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视重差△平均/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>鉴于原表格格式过于逆天，不打算还原原表格了，那么阴间的格式也就你开的物理实验老师想的出来了</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -250,6 +227,38 @@
   </si>
   <si>
     <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(与μD对齐位数)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(最高次有效数字为1,2保留两位,反之保留一位)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视重差△/g 2dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视重差△平均/g 2dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角扣重量m牛/g 1dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角扣密度ρ牛/g/cm3 2sd</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入前视重/g 2dp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入后视重/g 2dp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +266,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0E+00"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,11 +285,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -281,6 +299,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -301,13 +320,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -384,7 +396,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -413,19 +425,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,19 +726,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
@@ -727,40 +750,40 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -784,16 +807,16 @@
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="14">
         <v>18.39</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="14">
         <v>18.39</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="14">
         <v>18.399999999999999</v>
       </c>
       <c r="F11" s="5"/>
@@ -810,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
@@ -833,27 +856,27 @@
     </row>
     <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <f>AVERAGE(B11:E11)</f>
         <v>18.395</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <f>_xlfn.STDEV.S(B11:E11)</f>
         <v>5.7735026918951096E-3</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <f>C13/SQRT(J13)</f>
         <v>2.8867513459475548E-3</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <f>K13/SQRT(J13)*C13</f>
         <v>3.4641016151370657E-3</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <f>0.01/SQRT(3)</f>
         <v>5.773502691896258E-3</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <f>SQRT(E13^2+F13^2)</f>
         <v>6.7330032922410304E-3</v>
       </c>
@@ -863,697 +886,839 @@
       <c r="J13" s="8">
         <v>4</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <f>IF(J13&lt;6,ROUND(TINV(1-I13,J13-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
+    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="10" t="str">
+        <f>IF(G13*10^INT(-LOG(ABS(G13)))&lt;0.3,FIXED(B13,1-INT(LOG(G13)),1),FIXED(B13,-INT(LOG(G13)),1))</f>
+        <v>18.395</v>
+      </c>
+      <c r="G15" s="10" t="str">
+        <f>IF(G13*10^INT(-LOG(ABS(G13)))&lt;0.3,FIXED(G13,1-INT(LOG(G13)),1),FIXED(G13,-INT(LOG(G13)),1))</f>
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D18" s="5">
         <v>3</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B19" s="15">
         <v>2.9980000000000002</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C19" s="15">
         <v>2.996</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D19" s="15">
         <v>3</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E19" s="15">
         <v>3.0019999999999998</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="10">
+        <f>AVERAGE(B19:E19)</f>
+        <v>2.9989999999999997</v>
+      </c>
+      <c r="C21" s="10">
+        <f>_xlfn.STDEV.S(B19:E19)</f>
+        <v>2.5819888974714989E-3</v>
+      </c>
+      <c r="D21" s="10">
+        <f>C21/SQRT(J21)</f>
+        <v>1.2909944487357495E-3</v>
+      </c>
+      <c r="E21" s="10">
+        <f>K21/SQRT(J21)*D21</f>
+        <v>7.745966692414497E-4</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G21" s="10">
+        <f>SQRT(E21^2+F21^2)</f>
+        <v>1.3453624047073517E-3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J21" s="8">
+        <v>4</v>
+      </c>
+      <c r="K21" s="10">
+        <f>IF(J21&lt;6,ROUND(TINV(1-I21,J21-1),2),1)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="str">
+        <f>IF(G21*10^INT(-LOG(ABS(G21)))&lt;0.3,FIXED(B21,1-INT(LOG(G21)),1),FIXED(B21,-INT(LOG(G21)),1))</f>
+        <v>2.9990</v>
+      </c>
+      <c r="G23" s="10" t="str">
+        <f>IF(G21*10^INT(-LOG(ABS(G21)))&lt;0.3,FIXED(G21,1-INT(LOG(G21)),1),FIXED(G21,-INT(LOG(G21)),1))</f>
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="5">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5">
         <v>4</v>
       </c>
-      <c r="K18" s="13">
-        <f>IF(J18&lt;6,ROUND(TINV(1-I18,J18-1),2),1)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="13">
-        <f>AVERAGE(B17:E17)</f>
-        <v>2.9989999999999997</v>
-      </c>
-      <c r="C19" s="13">
-        <f>_xlfn.STDEV.S(B17:E17)</f>
-        <v>2.5819888974714989E-3</v>
-      </c>
-      <c r="D19" s="13">
-        <f>C19/SQRT(J18)</f>
-        <v>1.2909944487357495E-3</v>
-      </c>
-      <c r="E19" s="13">
-        <f>K18/SQRT(J18)*D19</f>
-        <v>7.745966692414497E-4</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="G19" s="13">
-        <f>SQRT(E19^2+F19^2)</f>
-        <v>1.3453624047073517E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
+    </row>
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1.804</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1.81</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="I26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="J26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.804</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1.8080000000000001</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1.81</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1.8080000000000001</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="J23" s="8">
-        <v>4</v>
-      </c>
-      <c r="K23" s="13">
-        <f>IF(J23&lt;6,ROUND(TINV(1-I23,J23-1),2),1)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="13">
-        <f>AVERAGE(B22:E22)</f>
-        <v>1.8075000000000001</v>
-      </c>
-      <c r="C24" s="13">
-        <f>_xlfn.STDEV.S(B22:E22)</f>
-        <v>2.5166114784235857E-3</v>
-      </c>
-      <c r="D24" s="13">
-        <f>C24/SQRT(J23)</f>
-        <v>1.2583057392117928E-3</v>
-      </c>
-      <c r="E24" s="13">
-        <f>K23/SQRT(J23)*C24</f>
-        <v>1.5099668870541514E-3</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="G24" s="13">
-        <f>SQRT(E24^2+F24^2)</f>
-        <v>1.8681541692269416E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>3</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="K26" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6">
-        <v>3.016</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3.016</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3.016</v>
-      </c>
-      <c r="E27" s="6">
-        <v>3.016</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J27" s="8">
+        <v>4</v>
+      </c>
+      <c r="K27" s="10">
+        <f>IF(J27&lt;6,ROUND(TINV(1-I27,J27-1),2),1)</f>
+        <v>1.2</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="5"/>
+      <c r="B28" s="10">
+        <f>AVERAGE(B26:E26)</f>
+        <v>1.8075000000000001</v>
+      </c>
+      <c r="C28" s="10">
+        <f>_xlfn.STDEV.S(B26:E26)</f>
+        <v>2.5166114784235857E-3</v>
+      </c>
+      <c r="D28" s="10">
+        <f>C28/SQRT(J27)</f>
+        <v>1.2583057392117928E-3</v>
+      </c>
+      <c r="E28" s="10">
+        <f>K27/SQRT(J27)*C28</f>
+        <v>1.5099668870541514E-3</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SQRT(E28^2+F28^2)</f>
+        <v>1.8681541692269416E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="str">
+        <f>IF(G28*10^INT(-LOG(ABS(G28)))&lt;0.3,FIXED(B28,1-INT(LOG(G28)),1),FIXED(B28,-INT(LOG(G28)),1))</f>
+        <v>1.8075</v>
+      </c>
+      <c r="G30" s="10" t="str">
+        <f>IF(G28*10^INT(-LOG(ABS(G28)))&lt;0.3,FIXED(G28,1-INT(LOG(G28)),1),FIXED(G28,-INT(LOG(G28)),1))</f>
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="C32" s="5">
         <v>2</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="D32" s="5">
         <v>3</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="E32" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="13">
-        <f>AVERAGE(B27:E27)</f>
-        <v>3.016</v>
-      </c>
-      <c r="C29" s="13">
-        <f>_xlfn.STDEV.S(B27:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
-        <f>C29/SQRT(J29)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
-        <f>K29/SQRT(J29)*C29</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="G29" s="13">
-        <f>SQRT(E29^2+F29^2)</f>
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0.68300000000000005</v>
-      </c>
-      <c r="J29" s="8">
-        <v>4</v>
-      </c>
-      <c r="K29" s="13">
-        <f>IF(J29&lt;6,ROUND(TINV(1-I29,J29-1),2),1)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5">
-        <v>3</v>
-      </c>
-      <c r="E31" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6">
-        <v>2.1259999999999999</v>
-      </c>
-      <c r="C32" s="6">
-        <v>2.1240000000000001</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2.1259999999999999</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2.1259999999999999</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3.016</v>
+      </c>
+      <c r="C33" s="15">
+        <v>3.016</v>
+      </c>
+      <c r="D33" s="15">
+        <v>3.016</v>
+      </c>
+      <c r="E33" s="15">
+        <v>3.016</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="10">
+        <f>AVERAGE(B33:E33)</f>
+        <v>3.016</v>
+      </c>
+      <c r="C35" s="10">
+        <f>_xlfn.STDEV.S(B33:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <f>C35/SQRT(J35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <f>K35/SQRT(J35)*C35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="G35" s="10">
+        <f>SQRT(E35^2+F35^2)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J35" s="8">
+        <v>4</v>
+      </c>
+      <c r="K35" s="10">
+        <f>IF(J35&lt;6,ROUND(TINV(1-I35,J35-1),2),1)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="str">
+        <f>IF(G35*10^INT(-LOG(ABS(G35)))&lt;0.3,FIXED(B35,1-INT(LOG(G35)),1),FIXED(B35,-INT(LOG(G35)),1))</f>
+        <v>3.0160</v>
+      </c>
+      <c r="G37" s="10" t="str">
+        <f>IF(G35*10^INT(-LOG(ABS(G35)))&lt;0.3,FIXED(G35,1-INT(LOG(G35)),1),FIXED(G35,-INT(LOG(G35)),1))</f>
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="15">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="C40" s="15">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="D40" s="15">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="E40" s="15">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="13">
-        <f>AVERAGE(B32:E32)</f>
+    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="10">
+        <f>AVERAGE(B40:E40)</f>
         <v>2.1254999999999997</v>
       </c>
-      <c r="C34" s="13">
-        <f>_xlfn.STDEV.S(B32:E32)</f>
+      <c r="C42" s="10">
+        <f>_xlfn.STDEV.S(B40:E40)</f>
         <v>9.9999999999988987E-4</v>
       </c>
-      <c r="D34" s="13">
-        <f>C34/SQRT(J34)</f>
+      <c r="D42" s="10">
+        <f>C42/SQRT(J42)</f>
         <v>4.9999999999994493E-4</v>
       </c>
-      <c r="E34" s="13">
-        <f>K34/SQRT(J34)*C34</f>
+      <c r="E42" s="10">
+        <f>K42/SQRT(J42)*C42</f>
         <v>5.9999999999993392E-4</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F42" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G34" s="13">
-        <f>SQRT(E34^2+F34^2)</f>
+      <c r="G42" s="10">
+        <f>SQRT(E42^2+F42^2)</f>
         <v>1.2529964086141351E-3</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I42" s="8">
         <v>0.68300000000000005</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J42" s="8">
         <v>4</v>
       </c>
-      <c r="K34" s="13">
-        <f>IF(J34&lt;6,ROUND(TINV(1-I34,J34-1),2),1)</f>
+      <c r="K42" s="10">
+        <f>IF(J42&lt;6,ROUND(TINV(1-I42,J42-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="str">
+        <f>IF(G42*10^INT(-LOG(ABS(G42)))&lt;0.3,FIXED(B42,1-INT(LOG(G42)),1),FIXED(B42,-INT(LOG(G42)),1))</f>
+        <v>2.1255</v>
+      </c>
+      <c r="G44" s="10" t="str">
+        <f>IF(G42*10^INT(-LOG(ABS(G42)))&lt;0.3,FIXED(G42,1-INT(LOG(G42)),1),FIXED(G42,-INT(LOG(G42)),1))</f>
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="13">
-        <f>PI()*(B19^2*B29-B24^2*B34)/4</f>
+      <c r="C46" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="10">
+        <f>PI()*(B21^2*B35-B28^2*B42)/4</f>
         <v>15.850732126626539</v>
       </c>
-      <c r="C37" s="13">
-        <f>SQRT(4*(B19*B29*G19)^2+B19^4*G29^2+4*(B24*B34*G24)^2+B24^4*G34^2)</f>
+      <c r="C47" s="10">
+        <f>SQRT(4*(B21*B35*G21)^2+B21^4*G35^2+4*(B28*B42*G28)^2+B28^4*G42^2)</f>
         <v>3.0215890197804421E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="str">
+        <f>IF(C47*10^INT(-LOG(ABS(C47)))&lt;0.3,FIXED(B47,1-INT(LOG(C47)),1),FIXED(B47,-INT(LOG(C47)),1))</f>
+        <v>15.85</v>
+      </c>
+      <c r="C49" s="10" t="str">
+        <f>IF(C47*10^INT(-LOG(ABS(C47)))&lt;0.3,FIXED(C47,1-INT(LOG(C47)),1),FIXED(C47,-INT(LOG(C47)),1))</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B52" s="5">
         <v>1</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C52" s="5">
         <v>2</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D52" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E52" s="5">
         <v>4</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F52" s="5">
         <v>5</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G52" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="53" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B53" s="6">
         <v>2.2214999999999998</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C53" s="6">
         <v>2.2212999999999998</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D53" s="6">
         <v>2.2214</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E53" s="6">
         <v>2.2216</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F53" s="6">
         <v>2.2214999999999998</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G53" s="6">
         <v>2.2214</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="54" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K54" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="13">
-        <f>AVERAGE(B41:G41)</f>
+    <row r="55" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="10">
+        <f>AVERAGE(B53:G53)</f>
         <v>2.2214499999999995</v>
       </c>
-      <c r="C43" s="13">
-        <f>_xlfn.STDEV.S(B41:G41)</f>
+      <c r="C55" s="10">
+        <f>_xlfn.STDEV.S(B53:G53)</f>
         <v>1.0488088481702478E-4</v>
       </c>
-      <c r="D43" s="13">
-        <f>C43/SQRT(J43)</f>
+      <c r="D55" s="10">
+        <f>C55/SQRT(J55)</f>
         <v>4.2817441928887697E-5</v>
       </c>
-      <c r="E43" s="13">
-        <f>K43/SQRT(J43)*C43</f>
+      <c r="E55" s="10">
+        <f>K55/SQRT(J55)*C55</f>
         <v>4.2817441928887697E-5</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F55" s="12">
         <f>0.0001/SQRT(3)</f>
         <v>5.7735026918962585E-5</v>
       </c>
-      <c r="G43" s="13">
-        <f>SQRT(E43^2+F43^2)</f>
+      <c r="G55" s="10">
+        <f>SQRT(E55^2+F55^2)</f>
         <v>7.1879528842828423E-5</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I55" s="8">
         <v>0.68300000000000005</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J55" s="8">
         <v>6</v>
       </c>
-      <c r="K43" s="13">
-        <f>IF(J43&lt;6,ROUND(TINV(1-I43,J43-1),2),1)</f>
+      <c r="K55" s="10">
+        <f>IF(J55&lt;6,ROUND(TINV(1-I55,J55-1),2),1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="56" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="str">
+        <f>IF(G55*10^INT(-LOG(ABS(G55)))&lt;0.3,FIXED(B55,1-INT(LOG(G55)),1),FIXED(B55,-INT(LOG(G55)),1))</f>
+        <v>2.22145</v>
+      </c>
+      <c r="G57" s="10" t="str">
+        <f>IF(G55*10^INT(-LOG(ABS(G55)))&lt;0.3,FIXED(G55,1-INT(LOG(G55)),1),FIXED(G55,-INT(LOG(G55)),1))</f>
+        <v>0.00007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="13">
-        <f>PI()*B43^3/6</f>
+    <row r="60" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="10">
+        <f>PI()*B55^3/6</f>
         <v>5.7399518632234781</v>
       </c>
-      <c r="C45" s="16">
-        <f>G43*PI()*B43^2/2</f>
+      <c r="C60" s="13">
+        <f>G55*PI()*B55^2/2</f>
         <v>5.5718341917533891E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="61" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="10" t="str">
+        <f>IF(C60*10^INT(-LOG(ABS(C60)))&lt;0.3,FIXED(B60,1-INT(LOG(C60)),1),FIXED(B60,-INT(LOG(C60)),1))</f>
+        <v>5.7400</v>
+      </c>
+      <c r="C62" s="10" t="str">
+        <f>IF(C60*10^INT(-LOG(ABS(C60)))&lt;0.3,FIXED(C60,1-INT(LOG(C60)),1),FIXED(C60,-INT(LOG(C60)),1))</f>
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
+    <row r="66" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
         <v>0.997</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+    <row r="67" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
         <v>212.6</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B68" s="19">
         <v>215.76</v>
       </c>
-      <c r="C51" s="13">
-        <f>B51-A51</f>
+      <c r="C68" s="20">
+        <f>B68-A68</f>
         <v>3.1599999999999966</v>
       </c>
-      <c r="D51" s="13">
-        <f>AVERAGE(C51:C53)</f>
+      <c r="D68" s="20">
+        <f>AVERAGE(C68:C70)</f>
         <v>3.1433333333333358</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E68" s="17">
         <v>3.8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+    <row r="69" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
         <v>225.13</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B69" s="19">
         <v>228.28</v>
       </c>
-      <c r="C52" s="13">
-        <f>B52-A52</f>
+      <c r="C69" s="20">
+        <f>B69-A69</f>
         <v>3.1500000000000057</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="D69" s="21"/>
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
         <v>215.01</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B70" s="19">
         <v>218.13</v>
       </c>
-      <c r="C53" s="13">
-        <f>B53-A53</f>
+      <c r="C70" s="20">
+        <f>B70-A70</f>
         <v>3.1200000000000045</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="D70" s="21"/>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="13">
-        <f>E51*A49/D51</f>
+      <c r="B72" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="18">
+        <f>E68*A66/D68</f>
         <v>1.2052810180275706</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/长度密度测量.xlsx
+++ b/长度密度测量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验报告\实验数据处理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7B15E-09B1-4E45-B4C2-6A334A5DD600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E460C27C-918F-4AE7-87AD-CB3940681C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="280" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>l1i/cm</t>
   </si>
@@ -168,100 +168,133 @@
     <t>μaD</t>
   </si>
   <si>
+    <t>μD</t>
+  </si>
+  <si>
+    <t>体积不确定度</t>
+  </si>
+  <si>
+    <t>水的密度/g/cm3</t>
+  </si>
+  <si>
+    <t>牛角扣重量m牛/g</t>
+  </si>
+  <si>
+    <t>牛角扣密度ρ牛/g/cm3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.课本宽度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.半空心圆柱体体积</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.牛角扣密度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入后视重/g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入前视重/g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积不确定度uV/cm3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为方便复制将无关数据移到了旁边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sl1-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.钢球体积(不含零点修正)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视重差△/g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视重差△平均/g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴于原表格格式过于逆天，不打算还原原表格了，那么阴间的格式也就你开的物理实验老师想的出来了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
+  </si>
+  <si>
+    <t>黄色格子：自动输出数据</t>
+  </si>
+  <si>
+    <t>Authored by Axolyz.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Licensed by GPL v3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome for stars, issues &amp; contribution.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼阳的晚意,初升的东曦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角扣质量平均</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准偏差</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>μbD</t>
-  </si>
-  <si>
-    <t>μD</t>
-  </si>
-  <si>
-    <t>体积不确定度</t>
-  </si>
-  <si>
-    <t>水的密度/g/cm3</t>
-  </si>
-  <si>
-    <t>牛角扣重量m牛/g</t>
-  </si>
-  <si>
-    <t>牛角扣密度ρ牛/g/cm3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.课本宽度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.半空心圆柱体体积</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.牛角扣密度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入后视重/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入前视重/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积不确定度uV/cm3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>为方便复制将无关数据移到了旁边</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sl1-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.钢球体积(不含零点修正)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视重差△/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视重差△平均/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鉴于原表格格式过于逆天，不打算还原原表格了，那么阴间的格式也就你开的物理实验老师想的出来了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
-  </si>
-  <si>
-    <t>黄色格子：自动输出数据</t>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼阳的晚意,初升的东曦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量差平均</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度不确定度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,13 +351,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -352,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -390,13 +416,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -431,18 +472,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="2" xr:uid="{5A97496C-8D33-4886-A7F6-0B71F739940B}"/>
     <cellStyle name="Style 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -715,64 +772,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.9140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="34.77734375" style="2"/>
+    <col min="11" max="11" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="34.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -789,26 +846,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="6">
-        <v>18.39</v>
+        <v>18.55</v>
       </c>
       <c r="C11" s="6">
-        <v>18.399999999999999</v>
+        <v>18.53</v>
       </c>
       <c r="D11" s="6">
-        <v>18.39</v>
+        <v>18.52</v>
       </c>
       <c r="E11" s="6">
-        <v>18.399999999999999</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -819,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
@@ -840,31 +897,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <f>AVERAGE(B11:E11)</f>
-        <v>18.395</v>
-      </c>
-      <c r="C13" s="13">
+        <v>18.54</v>
+      </c>
+      <c r="C13" s="12">
         <f>_xlfn.STDEV.S(B11:E11)</f>
-        <v>5.7735026918951096E-3</v>
-      </c>
-      <c r="D13" s="13">
+        <v>1.8257418583505148E-2</v>
+      </c>
+      <c r="D13" s="12">
         <f>C13/SQRT(J13)</f>
-        <v>2.8867513459475548E-3</v>
-      </c>
-      <c r="E13" s="13">
+        <v>9.128709291752574E-3</v>
+      </c>
+      <c r="E13" s="12">
         <f>K13/SQRT(J13)*C13</f>
-        <v>3.4641016151370657E-3</v>
-      </c>
-      <c r="F13" s="14">
+        <v>1.0954451150103088E-2</v>
+      </c>
+      <c r="F13" s="13">
         <f>0.01/SQRT(3)</f>
         <v>5.773502691896258E-3</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <f>SQRT(E13^2+F13^2)</f>
-        <v>6.7330032922410304E-3</v>
+        <v>1.2382783747337599E-2</v>
       </c>
       <c r="I13" s="8">
         <v>0.68300000000000005</v>
@@ -872,17 +929,17 @@
       <c r="J13" s="8">
         <v>4</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <f>IF(J13&lt;6,ROUND(TINV(1-I13,J13-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -899,21 +956,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="6">
-        <v>2.9980000000000002</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="C17" s="6">
-        <v>2.996</v>
+        <v>2.97</v>
       </c>
       <c r="D17" s="6">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="E17" s="6">
-        <v>3.0019999999999998</v>
+        <v>2.992</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -927,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -955,39 +1012,39 @@
       <c r="J18" s="8">
         <v>4</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <f>IF(J18&lt;6,ROUND(TINV(1-I18,J18-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f>AVERAGE(B17:E17)</f>
-        <v>2.9989999999999997</v>
-      </c>
-      <c r="C19" s="13">
+        <v>2.9835000000000003</v>
+      </c>
+      <c r="C19" s="12">
         <f>_xlfn.STDEV.S(B17:E17)</f>
-        <v>2.5819888974714989E-3</v>
-      </c>
-      <c r="D19" s="13">
+        <v>9.9833194212479038E-3</v>
+      </c>
+      <c r="D19" s="12">
         <f>C19/SQRT(J18)</f>
-        <v>1.2909944487357495E-3</v>
-      </c>
-      <c r="E19" s="13">
+        <v>4.9916597106239519E-3</v>
+      </c>
+      <c r="E19" s="12">
         <f>K18/SQRT(J18)*D19</f>
-        <v>7.745966692414497E-4</v>
+        <v>2.9949958263743711E-3</v>
       </c>
       <c r="F19" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <f>SQRT(E19^2+F19^2)</f>
-        <v>1.3453624047073517E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.190611226708748E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -1004,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1012,13 +1069,13 @@
         <v>1.804</v>
       </c>
       <c r="C22" s="6">
-        <v>1.8080000000000001</v>
+        <v>1.806</v>
       </c>
       <c r="D22" s="6">
-        <v>1.81</v>
+        <v>1.804</v>
       </c>
       <c r="E22" s="6">
-        <v>1.8080000000000001</v>
+        <v>1.8049999999999999</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1032,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -1060,39 +1117,39 @@
       <c r="J23" s="8">
         <v>4</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <f>IF(J23&lt;6,ROUND(TINV(1-I23,J23-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <f>AVERAGE(B22:E22)</f>
-        <v>1.8075000000000001</v>
-      </c>
-      <c r="C24" s="13">
+        <v>1.8047500000000001</v>
+      </c>
+      <c r="C24" s="12">
         <f>_xlfn.STDEV.S(B22:E22)</f>
-        <v>2.5166114784235857E-3</v>
-      </c>
-      <c r="D24" s="13">
+        <v>9.5742710775632931E-4</v>
+      </c>
+      <c r="D24" s="12">
         <f>C24/SQRT(J23)</f>
-        <v>1.2583057392117928E-3</v>
-      </c>
-      <c r="E24" s="13">
+        <v>4.7871355387816466E-4</v>
+      </c>
+      <c r="E24" s="12">
         <f>K23/SQRT(J23)*C24</f>
-        <v>1.5099668870541514E-3</v>
+        <v>5.7445626465379756E-4</v>
       </c>
       <c r="F24" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <f>SQRT(E24^2+F24^2)</f>
-        <v>1.8681541692269416E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.2409673645990833E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1109,26 +1166,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="6">
-        <v>3.016</v>
+        <v>3.004</v>
       </c>
       <c r="C27" s="6">
-        <v>3.016</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="D27" s="6">
-        <v>3.016</v>
+        <v>3.0019999999999998</v>
       </c>
       <c r="E27" s="6">
-        <v>3.016</v>
+        <v>3.008</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1160,30 +1217,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <f>AVERAGE(B27:E27)</f>
-        <v>3.016</v>
-      </c>
-      <c r="C29" s="13">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="C29" s="12">
         <f>_xlfn.STDEV.S(B27:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
+        <v>2.5819888974716711E-3</v>
+      </c>
+      <c r="D29" s="12">
         <f>C29/SQRT(J29)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
+        <v>1.2909944487358356E-3</v>
+      </c>
+      <c r="E29" s="12">
         <f>K29/SQRT(J29)*C29</f>
-        <v>0</v>
+        <v>1.5491933384830026E-3</v>
       </c>
       <c r="F29" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <f>SQRT(E29^2+F29^2)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.9000000000000293E-3</v>
       </c>
       <c r="I29" s="8">
         <v>0.68300000000000005</v>
@@ -1191,13 +1248,13 @@
       <c r="J29" s="8">
         <v>4</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="12">
         <f>IF(J29&lt;6,ROUND(TINV(1-I29,J29-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
@@ -1214,26 +1271,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>2.1259999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="C32" s="6">
-        <v>2.1240000000000001</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="D32" s="6">
-        <v>2.1259999999999999</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="E32" s="6">
-        <v>2.1259999999999999</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
@@ -1265,30 +1322,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <f>AVERAGE(B32:E32)</f>
-        <v>2.1254999999999997</v>
-      </c>
-      <c r="C34" s="13">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="C34" s="12">
         <f>_xlfn.STDEV.S(B32:E32)</f>
-        <v>9.9999999999988987E-4</v>
-      </c>
-      <c r="D34" s="13">
+        <v>3.6514837167011109E-3</v>
+      </c>
+      <c r="D34" s="12">
         <f>C34/SQRT(J34)</f>
-        <v>4.9999999999994493E-4</v>
-      </c>
-      <c r="E34" s="13">
+        <v>1.8257418583505554E-3</v>
+      </c>
+      <c r="E34" s="12">
         <f>K34/SQRT(J34)*C34</f>
-        <v>5.9999999999993392E-4</v>
+        <v>2.1908902300206666E-3</v>
       </c>
       <c r="F34" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <f>SQRT(E34^2+F34^2)</f>
-        <v>1.2529964086141351E-3</v>
+        <v>2.4515301344262544E-3</v>
       </c>
       <c r="I34" s="8">
         <v>0.68300000000000005</v>
@@ -1296,13 +1353,13 @@
       <c r="J34" s="8">
         <v>4</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <f>IF(J34&lt;6,ROUND(TINV(1-I34,J34-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -1310,26 +1367,26 @@
         <v>38</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <f>PI()*(B19^2*B29-B24^2*B34)/4</f>
-        <v>15.850732126626539</v>
-      </c>
-      <c r="C37" s="13">
+        <v>15.554133462073169</v>
+      </c>
+      <c r="C37" s="12">
         <f>SQRT(4*(B19*B29*G19)^2+B19^4*G29^2+4*(B24*B34*G24)^2+B24^4*G34^2)</f>
-        <v>3.0215890197804421E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.094266944945894E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1352,30 +1409,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="6">
-        <v>2.2214999999999998</v>
+        <v>2.2212000000000001</v>
       </c>
       <c r="C42" s="6">
-        <v>2.2212999999999998</v>
+        <v>2.2208000000000001</v>
       </c>
       <c r="D42" s="6">
-        <v>2.2214</v>
+        <v>2.2204999999999999</v>
       </c>
       <c r="E42" s="6">
-        <v>2.2216</v>
+        <v>2.2208999999999999</v>
       </c>
       <c r="F42" s="6">
-        <v>2.2214999999999998</v>
+        <v>2.2206999999999999</v>
       </c>
       <c r="G42" s="6">
-        <v>2.2214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.2204999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -1391,11 +1448,11 @@
       <c r="E43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>2</v>
@@ -1407,31 +1464,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <f>AVERAGE(B42:G42)</f>
-        <v>2.2214499999999995</v>
-      </c>
-      <c r="C44" s="13">
+        <v>2.2207666666666666</v>
+      </c>
+      <c r="C44" s="12">
         <f>_xlfn.STDEV.S(B42:G42)</f>
-        <v>1.0488088481702478E-4</v>
-      </c>
-      <c r="D44" s="13">
+        <v>2.6583202716507382E-4</v>
+      </c>
+      <c r="D44" s="12">
         <f>C44/SQRT(J44)</f>
-        <v>4.2817441928887697E-5</v>
-      </c>
-      <c r="E44" s="13">
+        <v>1.085254706406846E-4</v>
+      </c>
+      <c r="E44" s="12">
         <f>K44/SQRT(J44)*C44</f>
-        <v>4.2817441928887697E-5</v>
-      </c>
-      <c r="F44" s="15">
+        <v>1.204632724111599E-4</v>
+      </c>
+      <c r="F44" s="14">
         <f>0.0001/SQRT(3)</f>
         <v>5.7735026918962585E-5</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <f>SQRT(E44^2+F44^2)</f>
-        <v>7.1879528842828423E-5</v>
+        <v>1.3358418070018115E-4</v>
       </c>
       <c r="I44" s="8">
         <v>0.68300000000000005</v>
@@ -1439,12 +1496,12 @@
       <c r="J44" s="8">
         <v>6</v>
       </c>
-      <c r="K44" s="13">
-        <f>IF(J44&lt;6,ROUND(TINV(1-I44,J44-1),2),1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K44" s="12">
+        <f>IF(J44&lt;10,ROUND(TINV(1-I44,J44-1),2),1)</f>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>1</v>
       </c>
@@ -1452,137 +1509,277 @@
         <v>39</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="12">
+        <f>PI()*B44^3/6</f>
+        <v>5.7346565461509469</v>
+      </c>
+      <c r="C46" s="15">
+        <f>G44*PI()*B44^2/2</f>
+        <v>1.0348580170257333E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="13">
-        <f>PI()*B44^3/6</f>
-        <v>5.7399518632234781</v>
-      </c>
-      <c r="C46" s="16">
-        <f>G44*PI()*B44^2/2</f>
-        <v>5.5718341917533891E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    <row r="50" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
+        <v>0.99857899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="C51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>212.6</v>
       </c>
       <c r="B52" s="6">
         <v>215.76</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="12">
         <f>B52-A52</f>
         <v>3.1599999999999966</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="12">
         <f>AVERAGE(C52:C54)</f>
         <v>3.1433333333333358</v>
       </c>
       <c r="E52" s="11">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.77</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J52" s="8">
+        <v>3</v>
+      </c>
+      <c r="K52" s="12">
+        <f>IF(J52&lt;6,ROUND(TINV(1-I52,J52-1),2),1)</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>225.13</v>
       </c>
       <c r="B53" s="6">
         <v>228.28</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="12">
         <f>B53-A53</f>
         <v>3.1500000000000057</v>
       </c>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="6">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>215.01</v>
       </c>
       <c r="B54" s="6">
         <v>218.13</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="12">
         <f>B54-A54</f>
         <v>3.1200000000000045</v>
       </c>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="6">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
-      <c r="B57" s="13">
-        <f>E52*A50/D52</f>
-        <v>1.2052810180275706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B57" s="12">
+        <f>B60*A50/D52</f>
+        <v>1.1955415599151635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="20">
+        <f>AVERAGE(E52:E54)</f>
+        <v>3.7633333333333332</v>
+      </c>
+      <c r="C60" s="22">
+        <f>_xlfn.STDEV.S(E52:E54)</f>
+        <v>5.7735026918963907E-3</v>
+      </c>
+      <c r="D60" s="22">
+        <f>C60/SQRT(J52)</f>
+        <v>3.3333333333334103E-3</v>
+      </c>
+      <c r="E60" s="22">
+        <f>K52/SQRT(J52)*C60</f>
+        <v>4.4000000000001017E-3</v>
+      </c>
+      <c r="F60" s="23">
+        <f>0.01/SQRT(3)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="G60" s="22">
+        <f>SQRT(E60^2+F60^2)</f>
+        <v>7.2590173807020354E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="20">
+        <f>AVERAGE(C52:C54)</f>
+        <v>3.1433333333333358</v>
+      </c>
+      <c r="C63" s="22">
+        <f>_xlfn.STDEV.S(C52:C54)</f>
+        <v>2.0816659994658322E-2</v>
+      </c>
+      <c r="D63" s="22">
+        <f>C63/SQRT(J52)</f>
+        <v>1.2018504251544897E-2</v>
+      </c>
+      <c r="E63" s="22">
+        <f>K52/SQRT(J52)*C63</f>
+        <v>1.5864425612039264E-2</v>
+      </c>
+      <c r="F63" s="23">
+        <f>0.01/SQRT(3)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="G63" s="22">
+        <f>SQRT(E63^2+F63^2)</f>
+        <v>1.6882337910765224E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="24">
+        <f>(B60-B63)^2*SQRT((B60-B63)^2*G60^2+B60^2*A50^2*(G60^2+G63^2))</f>
+        <v>2.6602876485976559E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/长度密度测量.xlsx
+++ b/长度密度测量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验报告\实验数据处理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB3A101-8F5E-4E2C-B179-E306D15B6EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E460C27C-918F-4AE7-87AD-CB3940681C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="280" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>l1i/cm</t>
   </si>
@@ -168,88 +168,133 @@
     <t>μaD</t>
   </si>
   <si>
+    <t>μD</t>
+  </si>
+  <si>
+    <t>体积不确定度</t>
+  </si>
+  <si>
+    <t>水的密度/g/cm3</t>
+  </si>
+  <si>
+    <t>牛角扣重量m牛/g</t>
+  </si>
+  <si>
+    <t>牛角扣密度ρ牛/g/cm3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.课本宽度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.半空心圆柱体体积</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.牛角扣密度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入后视重/g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>放入前视重/g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体积不确定度uV/cm3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>为方便复制将无关数据移到了旁边</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sl1-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.钢球体积(不含零点修正)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视重差△/g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视重差△平均/g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴于原表格格式过于逆天，不打算还原原表格了，那么阴间的格式也就你开的物理实验老师想的出来了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
+  </si>
+  <si>
+    <t>黄色格子：自动输出数据</t>
+  </si>
+  <si>
+    <t>Authored by Axolyz.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Licensed by GPL v3.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome for stars, issues &amp; contribution.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼阳的晚意,初升的东曦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角扣质量平均</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准偏差</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>μbD</t>
-  </si>
-  <si>
-    <t>μD</t>
-  </si>
-  <si>
-    <t>体积不确定度</t>
-  </si>
-  <si>
-    <t>水的密度/g/cm3</t>
-  </si>
-  <si>
-    <t>牛角扣重量m牛/g</t>
-  </si>
-  <si>
-    <t>牛角扣密度ρ牛/g/cm3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.课本宽度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.半空心圆柱体体积</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.牛角扣密度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入后视重/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>放入前视重/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积不确定度uV/cm3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>为方便复制将无关数据移到了旁边</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sl1-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.钢球体积(不含零点修正)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视重差△/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视重差△平均/g</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鉴于原表格格式过于逆天，不打算还原原表格了，那么阴间的格式也就你开的物理实验老师想的出来了</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
-  </si>
-  <si>
-    <t>黄色格子：自动输出数据</t>
-  </si>
-  <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>彼阳的晚意,初升的东曦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量差平均</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密度不确定度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,13 +351,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -340,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -378,13 +416,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -419,18 +472,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="2" xr:uid="{5A97496C-8D33-4886-A7F6-0B71F739940B}"/>
     <cellStyle name="Style 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,67 +772,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.9140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="34.77734375" style="2"/>
+    <col min="11" max="11" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="34.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -780,26 +846,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="6">
-        <v>18.39</v>
+        <v>18.55</v>
       </c>
       <c r="C11" s="6">
-        <v>18.399999999999999</v>
+        <v>18.53</v>
       </c>
       <c r="D11" s="6">
-        <v>18.39</v>
+        <v>18.52</v>
       </c>
       <c r="E11" s="6">
-        <v>18.399999999999999</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -810,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>7</v>
@@ -831,31 +897,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <f>AVERAGE(B11:E11)</f>
-        <v>18.395</v>
-      </c>
-      <c r="C13" s="13">
+        <v>18.54</v>
+      </c>
+      <c r="C13" s="12">
         <f>_xlfn.STDEV.S(B11:E11)</f>
-        <v>5.7735026918951096E-3</v>
-      </c>
-      <c r="D13" s="13">
+        <v>1.8257418583505148E-2</v>
+      </c>
+      <c r="D13" s="12">
         <f>C13/SQRT(J13)</f>
-        <v>2.8867513459475548E-3</v>
-      </c>
-      <c r="E13" s="13">
+        <v>9.128709291752574E-3</v>
+      </c>
+      <c r="E13" s="12">
         <f>K13/SQRT(J13)*C13</f>
-        <v>3.4641016151370657E-3</v>
-      </c>
-      <c r="F13" s="14">
+        <v>1.0954451150103088E-2</v>
+      </c>
+      <c r="F13" s="13">
         <f>0.01/SQRT(3)</f>
         <v>5.773502691896258E-3</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <f>SQRT(E13^2+F13^2)</f>
-        <v>6.7330032922410304E-3</v>
+        <v>1.2382783747337599E-2</v>
       </c>
       <c r="I13" s="8">
         <v>0.68300000000000005</v>
@@ -863,17 +929,17 @@
       <c r="J13" s="8">
         <v>4</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <f>IF(J13&lt;6,ROUND(TINV(1-I13,J13-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
@@ -890,21 +956,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="6">
-        <v>2.9980000000000002</v>
+        <v>2.9820000000000002</v>
       </c>
       <c r="C17" s="6">
-        <v>2.996</v>
+        <v>2.97</v>
       </c>
       <c r="D17" s="6">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="E17" s="6">
-        <v>3.0019999999999998</v>
+        <v>2.992</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -918,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -946,39 +1012,39 @@
       <c r="J18" s="8">
         <v>4</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <f>IF(J18&lt;6,ROUND(TINV(1-I18,J18-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f>AVERAGE(B17:E17)</f>
-        <v>2.9989999999999997</v>
-      </c>
-      <c r="C19" s="13">
+        <v>2.9835000000000003</v>
+      </c>
+      <c r="C19" s="12">
         <f>_xlfn.STDEV.S(B17:E17)</f>
-        <v>2.5819888974714989E-3</v>
-      </c>
-      <c r="D19" s="13">
+        <v>9.9833194212479038E-3</v>
+      </c>
+      <c r="D19" s="12">
         <f>C19/SQRT(J18)</f>
-        <v>1.2909944487357495E-3</v>
-      </c>
-      <c r="E19" s="13">
+        <v>4.9916597106239519E-3</v>
+      </c>
+      <c r="E19" s="12">
         <f>K18/SQRT(J18)*D19</f>
-        <v>7.745966692414497E-4</v>
+        <v>2.9949958263743711E-3</v>
       </c>
       <c r="F19" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <f>SQRT(E19^2+F19^2)</f>
-        <v>1.3453624047073517E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.190611226708748E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -995,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1003,13 +1069,13 @@
         <v>1.804</v>
       </c>
       <c r="C22" s="6">
-        <v>1.8080000000000001</v>
+        <v>1.806</v>
       </c>
       <c r="D22" s="6">
-        <v>1.81</v>
+        <v>1.804</v>
       </c>
       <c r="E22" s="6">
-        <v>1.8080000000000001</v>
+        <v>1.8049999999999999</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1023,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -1051,39 +1117,39 @@
       <c r="J23" s="8">
         <v>4</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="12">
         <f>IF(J23&lt;6,ROUND(TINV(1-I23,J23-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <f>AVERAGE(B22:E22)</f>
-        <v>1.8075000000000001</v>
-      </c>
-      <c r="C24" s="13">
+        <v>1.8047500000000001</v>
+      </c>
+      <c r="C24" s="12">
         <f>_xlfn.STDEV.S(B22:E22)</f>
-        <v>2.5166114784235857E-3</v>
-      </c>
-      <c r="D24" s="13">
+        <v>9.5742710775632931E-4</v>
+      </c>
+      <c r="D24" s="12">
         <f>C24/SQRT(J23)</f>
-        <v>1.2583057392117928E-3</v>
-      </c>
-      <c r="E24" s="13">
+        <v>4.7871355387816466E-4</v>
+      </c>
+      <c r="E24" s="12">
         <f>K23/SQRT(J23)*C24</f>
-        <v>1.5099668870541514E-3</v>
+        <v>5.7445626465379756E-4</v>
       </c>
       <c r="F24" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <f>SQRT(E24^2+F24^2)</f>
-        <v>1.8681541692269416E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.2409673645990833E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -1100,26 +1166,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="6">
-        <v>3.016</v>
+        <v>3.004</v>
       </c>
       <c r="C27" s="6">
-        <v>3.016</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="D27" s="6">
-        <v>3.016</v>
+        <v>3.0019999999999998</v>
       </c>
       <c r="E27" s="6">
-        <v>3.016</v>
+        <v>3.008</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
@@ -1151,30 +1217,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <f>AVERAGE(B27:E27)</f>
-        <v>3.016</v>
-      </c>
-      <c r="C29" s="13">
+        <v>3.0049999999999999</v>
+      </c>
+      <c r="C29" s="12">
         <f>_xlfn.STDEV.S(B27:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
+        <v>2.5819888974716711E-3</v>
+      </c>
+      <c r="D29" s="12">
         <f>C29/SQRT(J29)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
+        <v>1.2909944487358356E-3</v>
+      </c>
+      <c r="E29" s="12">
         <f>K29/SQRT(J29)*C29</f>
-        <v>0</v>
+        <v>1.5491933384830026E-3</v>
       </c>
       <c r="F29" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <f>SQRT(E29^2+F29^2)</f>
-        <v>1.1000000000000001E-3</v>
+        <v>1.9000000000000293E-3</v>
       </c>
       <c r="I29" s="8">
         <v>0.68300000000000005</v>
@@ -1182,13 +1248,13 @@
       <c r="J29" s="8">
         <v>4</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="12">
         <f>IF(J29&lt;6,ROUND(TINV(1-I29,J29-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
@@ -1205,26 +1271,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>2.1259999999999999</v>
+        <v>2.13</v>
       </c>
       <c r="C32" s="6">
-        <v>2.1240000000000001</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="D32" s="6">
-        <v>2.1259999999999999</v>
+        <v>2.1360000000000001</v>
       </c>
       <c r="E32" s="6">
-        <v>2.1259999999999999</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
@@ -1256,30 +1322,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
-      <c r="B34" s="13">
+      <c r="B34" s="12">
         <f>AVERAGE(B32:E32)</f>
-        <v>2.1254999999999997</v>
-      </c>
-      <c r="C34" s="13">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="C34" s="12">
         <f>_xlfn.STDEV.S(B32:E32)</f>
-        <v>9.9999999999988987E-4</v>
-      </c>
-      <c r="D34" s="13">
+        <v>3.6514837167011109E-3</v>
+      </c>
+      <c r="D34" s="12">
         <f>C34/SQRT(J34)</f>
-        <v>4.9999999999994493E-4</v>
-      </c>
-      <c r="E34" s="13">
+        <v>1.8257418583505554E-3</v>
+      </c>
+      <c r="E34" s="12">
         <f>K34/SQRT(J34)*C34</f>
-        <v>5.9999999999993392E-4</v>
+        <v>2.1908902300206666E-3</v>
       </c>
       <c r="F34" s="9">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <f>SQRT(E34^2+F34^2)</f>
-        <v>1.2529964086141351E-3</v>
+        <v>2.4515301344262544E-3</v>
       </c>
       <c r="I34" s="8">
         <v>0.68300000000000005</v>
@@ -1287,13 +1353,13 @@
       <c r="J34" s="8">
         <v>4</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="12">
         <f>IF(J34&lt;6,ROUND(TINV(1-I34,J34-1),2),1)</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -1301,259 +1367,419 @@
         <v>38</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <f>PI()*(B19^2*B29-B24^2*B34)/4</f>
-        <v>15.850732126626539</v>
-      </c>
-      <c r="C37" s="13">
+        <v>15.554133462073169</v>
+      </c>
+      <c r="C37" s="12">
         <f>SQRT(4*(B19*B29*G19)^2+B19^4*G29^2+4*(B24*B34*G24)^2+B24^4*G34^2)</f>
-        <v>3.0215890197804421E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+        <v>6.094266944945894E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B41" s="5">
         <v>1</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C41" s="5">
         <v>2</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="5">
         <v>3</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="5">
         <v>4</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F41" s="5">
         <v>5</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G41" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="6">
-        <v>2.2214999999999998</v>
-      </c>
-      <c r="C41" s="6">
-        <v>2.2212999999999998</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2.2214</v>
-      </c>
-      <c r="E41" s="6">
-        <v>2.2216</v>
-      </c>
-      <c r="F41" s="6">
-        <v>2.2214999999999998</v>
-      </c>
-      <c r="G41" s="6">
-        <v>2.2214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="B42" s="6">
+        <v>2.2212000000000001</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2.2208000000000001</v>
+      </c>
+      <c r="D42" s="6">
+        <v>2.2204999999999999</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2.2208999999999999</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2.2206999999999999</v>
+      </c>
+      <c r="G42" s="6">
+        <v>2.2204999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F43" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K43" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="13">
-        <f>AVERAGE(B41:G41)</f>
-        <v>2.2214499999999995</v>
-      </c>
-      <c r="C43" s="13">
-        <f>_xlfn.STDEV.S(B41:G41)</f>
-        <v>1.0488088481702478E-4</v>
-      </c>
-      <c r="D43" s="13">
-        <f>C43/SQRT(J43)</f>
-        <v>4.2817441928887697E-5</v>
-      </c>
-      <c r="E43" s="13">
-        <f>K43/SQRT(J43)*C43</f>
-        <v>4.2817441928887697E-5</v>
-      </c>
-      <c r="F43" s="15">
+    <row r="44" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="12">
+        <f>AVERAGE(B42:G42)</f>
+        <v>2.2207666666666666</v>
+      </c>
+      <c r="C44" s="12">
+        <f>_xlfn.STDEV.S(B42:G42)</f>
+        <v>2.6583202716507382E-4</v>
+      </c>
+      <c r="D44" s="12">
+        <f>C44/SQRT(J44)</f>
+        <v>1.085254706406846E-4</v>
+      </c>
+      <c r="E44" s="12">
+        <f>K44/SQRT(J44)*C44</f>
+        <v>1.204632724111599E-4</v>
+      </c>
+      <c r="F44" s="14">
         <f>0.0001/SQRT(3)</f>
         <v>5.7735026918962585E-5</v>
       </c>
-      <c r="G43" s="13">
-        <f>SQRT(E43^2+F43^2)</f>
-        <v>7.1879528842828423E-5</v>
-      </c>
-      <c r="I43" s="8">
+      <c r="G44" s="12">
+        <f>SQRT(E44^2+F44^2)</f>
+        <v>1.3358418070018115E-4</v>
+      </c>
+      <c r="I44" s="8">
         <v>0.68300000000000005</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J44" s="8">
         <v>6</v>
       </c>
-      <c r="K43" s="13">
-        <f>IF(J43&lt;6,ROUND(TINV(1-I43,J43-1),2),1)</f>
+      <c r="K44" s="12">
+        <f>IF(J44&lt;10,ROUND(TINV(1-I44,J44-1),2),1)</f>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="B45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="12">
+        <f>PI()*B44^3/6</f>
+        <v>5.7346565461509469</v>
+      </c>
+      <c r="C46" s="15">
+        <f>G44*PI()*B44^2/2</f>
+        <v>1.0348580170257333E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
+        <v>0.99857899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>212.6</v>
+      </c>
+      <c r="B52" s="6">
+        <v>215.76</v>
+      </c>
+      <c r="C52" s="12">
+        <f>B52-A52</f>
+        <v>3.1599999999999966</v>
+      </c>
+      <c r="D52" s="12">
+        <f>AVERAGE(C52:C54)</f>
+        <v>3.1433333333333358</v>
+      </c>
+      <c r="E52" s="11">
+        <v>3.77</v>
+      </c>
+      <c r="I52" s="8">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="J52" s="8">
+        <v>3</v>
+      </c>
+      <c r="K52" s="12">
+        <f>IF(J52&lt;6,ROUND(TINV(1-I52,J52-1),2),1)</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>225.13</v>
+      </c>
+      <c r="B53" s="6">
+        <v>228.28</v>
+      </c>
+      <c r="C53" s="12">
+        <f>B53-A53</f>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>215.01</v>
+      </c>
+      <c r="B54" s="6">
+        <v>218.13</v>
+      </c>
+      <c r="C54" s="12">
+        <f>B54-A54</f>
+        <v>3.1200000000000045</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="13">
-        <f>PI()*B43^3/6</f>
-        <v>5.7399518632234781</v>
-      </c>
-      <c r="C45" s="16">
-        <f>G43*PI()*B43^2/2</f>
-        <v>5.5718341917533891E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="B56" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>212.6</v>
-      </c>
-      <c r="B51" s="6">
-        <v>215.76</v>
-      </c>
-      <c r="C51" s="13">
-        <f>B51-A51</f>
-        <v>3.1599999999999966</v>
-      </c>
-      <c r="D51" s="13">
-        <f>AVERAGE(C51:C53)</f>
+    <row r="57" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="12">
+        <f>B60*A50/D52</f>
+        <v>1.1955415599151635</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="20">
+        <f>AVERAGE(E52:E54)</f>
+        <v>3.7633333333333332</v>
+      </c>
+      <c r="C60" s="22">
+        <f>_xlfn.STDEV.S(E52:E54)</f>
+        <v>5.7735026918963907E-3</v>
+      </c>
+      <c r="D60" s="22">
+        <f>C60/SQRT(J52)</f>
+        <v>3.3333333333334103E-3</v>
+      </c>
+      <c r="E60" s="22">
+        <f>K52/SQRT(J52)*C60</f>
+        <v>4.4000000000001017E-3</v>
+      </c>
+      <c r="F60" s="23">
+        <f>0.01/SQRT(3)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="G60" s="22">
+        <f>SQRT(E60^2+F60^2)</f>
+        <v>7.2590173807020354E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="20">
+        <f>AVERAGE(C52:C54)</f>
         <v>3.1433333333333358</v>
       </c>
-      <c r="E51" s="11">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
-        <v>225.13</v>
-      </c>
-      <c r="B52" s="6">
-        <v>228.28</v>
-      </c>
-      <c r="C52" s="13">
-        <f>B52-A52</f>
-        <v>3.1500000000000057</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
-        <v>215.01</v>
-      </c>
-      <c r="B53" s="6">
-        <v>218.13</v>
-      </c>
-      <c r="C53" s="13">
-        <f>B53-A53</f>
-        <v>3.1200000000000045</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="13">
-        <f>E51*A49/D51</f>
-        <v>1.2052810180275706</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="C63" s="22">
+        <f>_xlfn.STDEV.S(C52:C54)</f>
+        <v>2.0816659994658322E-2</v>
+      </c>
+      <c r="D63" s="22">
+        <f>C63/SQRT(J52)</f>
+        <v>1.2018504251544897E-2</v>
+      </c>
+      <c r="E63" s="22">
+        <f>K52/SQRT(J52)*C63</f>
+        <v>1.5864425612039264E-2</v>
+      </c>
+      <c r="F63" s="23">
+        <f>0.01/SQRT(3)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="G63" s="22">
+        <f>SQRT(E63^2+F63^2)</f>
+        <v>1.6882337910765224E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="24">
+        <f>(B60-B63)^2*SQRT((B60-B63)^2*G60^2+B60^2*A50^2*(G60^2+G63^2))</f>
+        <v>2.6602876485976559E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
